--- a/data/trans_orig/IP07A28_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A28_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FA95884-B7F3-4C42-8FB1-8AD5935246FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53427590-659C-4D6D-9049-3718A684BF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{90E2F4E2-12B4-461D-8324-C5193179FF55}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D6ED56B9-CE05-467F-885C-1563D6FBF9CD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -83,13 +83,13 @@
     <t>5,28%</t>
   </si>
   <si>
-    <t>16,75%</t>
+    <t>16,44%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>8,99%</t>
+    <t>9,96%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -98,19 +98,19 @@
     <t>3,34%</t>
   </si>
   <si>
-    <t>15,43%</t>
+    <t>18,95%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>7,81%</t>
+    <t>8,32%</t>
   </si>
   <si>
     <t>2,34%</t>
   </si>
   <si>
-    <t>9,53%</t>
+    <t>8,2%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -119,25 +119,25 @@
     <t>12,32%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>14,22%</t>
+    <t>14,44%</t>
   </si>
   <si>
     <t>8,21%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -146,454 +146,454 @@
     <t>7,67%</t>
   </si>
   <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
   </si>
   <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
   </si>
   <si>
     <t>5,12%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
   </si>
   <si>
     <t>5,63%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
+    <t>4,1%</t>
   </si>
   <si>
     <t>18,13%</t>
   </si>
   <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
   </si>
   <si>
     <t>16,33%</t>
   </si>
   <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
   </si>
   <si>
     <t>17,3%</t>
   </si>
   <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
   </si>
   <si>
     <t>71,86%</t>
   </si>
   <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
   </si>
   <si>
     <t>72,18%</t>
   </si>
   <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
   </si>
   <si>
     <t>72,01%</t>
   </si>
   <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1008,7 +1008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DD5E03-DCC0-4B12-B4B6-3148A7F6DE6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B529A4-BAC0-47AD-8181-4C36C50D4278}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1497,7 +1497,7 @@
         <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -1506,13 +1506,13 @@
         <v>7118</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
@@ -1521,13 +1521,13 @@
         <v>10346</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1542,13 +1542,13 @@
         <v>13055</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -1557,10 +1557,10 @@
         <v>11575</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>78</v>
@@ -2059,10 +2059,10 @@
         <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -2071,13 +2071,13 @@
         <v>15446</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -2086,13 +2086,13 @@
         <v>26426</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2107,13 +2107,13 @@
         <v>5568</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -2122,13 +2122,13 @@
         <v>7508</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -2137,13 +2137,13 @@
         <v>13077</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2158,13 +2158,13 @@
         <v>25388</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>25</v>
@@ -2173,13 +2173,13 @@
         <v>18447</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>52</v>
@@ -2188,13 +2188,13 @@
         <v>43835</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP07A28_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A28_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53427590-659C-4D6D-9049-3718A684BF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC82DBC7-5171-4561-ADCD-03E1D83E1BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D6ED56B9-CE05-467F-885C-1563D6FBF9CD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F2533EBB-FA01-4FDA-87B6-09DF4DF1EC18}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="187">
-  <si>
-    <t>Menores según frecuencia de estar demasiado cansado para disfrutar de las cosas que le gustan en 2023 (Tasa respuesta: 50,21%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="161">
+  <si>
+    <t>Menores según frecuencia de estar demasiado cansado/a para disfrutar de las cosas que le gustan en 2023 (Tasa respuesta: 50,16%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,529 +71,451 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
+    <t>5,45%</t>
+  </si>
+  <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
+    <t>2,82%</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1008,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B529A4-BAC0-47AD-8181-4C36C50D4278}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636D7D9F-7BC1-4534-A765-A4C16AA8A585}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1126,10 +1048,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>20853</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1141,184 +1063,184 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>1477</v>
+        <v>16856</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="N4" s="7">
-        <v>1477</v>
+        <v>37708</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>888</v>
+        <v>7203</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>391</v>
+        <v>9300</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="N5" s="7">
-        <v>1279</v>
+        <v>16503</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>3278</v>
+        <v>526</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>1205</v>
+        <v>1380</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>4483</v>
+        <v>1905</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>2042</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>5735</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="M7" s="7">
-        <v>9</v>
-      </c>
-      <c r="N7" s="7">
-        <v>7778</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>43</v>
@@ -1330,49 +1252,49 @@
         <v>44</v>
       </c>
       <c r="C8" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>20412</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>19175</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>39587</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1381,255 +1303,255 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>34</v>
+      </c>
+      <c r="D9" s="7">
+        <v>28582</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="7">
         <v>33</v>
       </c>
-      <c r="D9" s="7">
-        <v>26621</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="7">
-        <v>34</v>
-      </c>
       <c r="I9" s="7">
-        <v>27983</v>
+        <v>27535</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M9" s="7">
         <v>67</v>
       </c>
       <c r="N9" s="7">
-        <v>54604</v>
+        <v>56116</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>238</v>
       </c>
       <c r="D10" s="7">
-        <v>7607</v>
+        <v>167715</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H10" s="7">
-        <v>11</v>
+        <v>244</v>
       </c>
       <c r="I10" s="7">
-        <v>9414</v>
+        <v>223928</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
-        <v>20</v>
+        <v>482</v>
       </c>
       <c r="N10" s="7">
-        <v>17021</v>
+        <v>391644</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="D11" s="7">
-        <v>3228</v>
+        <v>85678</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="I11" s="7">
-        <v>7118</v>
+        <v>74686</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="N11" s="7">
-        <v>10346</v>
+        <v>160364</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>13055</v>
+        <v>4243</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="7">
+        <v>9</v>
+      </c>
+      <c r="I12" s="7">
+        <v>7972</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="7">
+        <v>15</v>
+      </c>
+      <c r="N12" s="7">
+        <v>12216</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="7">
-        <v>15</v>
-      </c>
-      <c r="I12" s="7">
-        <v>11575</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M12" s="7">
-        <v>28</v>
-      </c>
-      <c r="N12" s="7">
-        <v>24630</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>62390</v>
+        <v>848</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H13" s="7">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>42617</v>
+        <v>1605</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="M13" s="7">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>105007</v>
+        <v>2453</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1638,49 +1560,49 @@
         <v>44</v>
       </c>
       <c r="C14" s="7">
-        <v>237</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>207940</v>
+        <v>1404</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H14" s="7">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>178713</v>
+        <v>893</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>468</v>
+        <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>386653</v>
+        <v>2296</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1689,255 +1611,255 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D15" s="7">
-        <v>294220</v>
+        <v>259888</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H15" s="7">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="I15" s="7">
-        <v>249438</v>
+        <v>309084</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M15" s="7">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N15" s="7">
-        <v>543658</v>
+        <v>568973</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="D16" s="7">
-        <v>3374</v>
+        <v>62327</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="I16" s="7">
-        <v>4554</v>
+        <v>81835</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="N16" s="7">
-        <v>7928</v>
+        <v>144162</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D17" s="7">
-        <v>1452</v>
+        <v>15964</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>19049</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="N17" s="7">
-        <v>1452</v>
+        <v>35012</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>9055</v>
+        <v>1940</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H18" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>5667</v>
+        <v>358</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="M18" s="7">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N18" s="7">
-        <v>14722</v>
+        <v>2298</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>11478</v>
+        <v>551</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="H19" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>10512</v>
+        <v>851</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="M19" s="7">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>21990</v>
+        <v>1401</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,49 +1868,49 @@
         <v>44</v>
       </c>
       <c r="C20" s="7">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>72535</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H20" s="7">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>62284</v>
+        <v>850</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>176</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>134819</v>
+        <v>850</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1997,49 +1919,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>114</v>
+      </c>
+      <c r="D21" s="7">
+        <v>80781</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="7">
         <v>122</v>
       </c>
-      <c r="D21" s="7">
-        <v>97893</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="7">
-        <v>114</v>
-      </c>
       <c r="I21" s="7">
-        <v>83017</v>
+        <v>102943</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M21" s="7">
         <v>236</v>
       </c>
       <c r="N21" s="7">
-        <v>180910</v>
+        <v>183724</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2050,202 +1972,202 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>14</v>
+        <v>351</v>
       </c>
       <c r="D22" s="7">
-        <v>10981</v>
+        <v>250895</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>19</v>
+        <v>365</v>
       </c>
       <c r="I22" s="7">
-        <v>15446</v>
+        <v>322618</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>33</v>
+        <v>716</v>
       </c>
       <c r="N22" s="7">
-        <v>26426</v>
+        <v>573513</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="D23" s="7">
-        <v>5568</v>
+        <v>108845</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="I23" s="7">
-        <v>7508</v>
+        <v>103035</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="N23" s="7">
-        <v>13077</v>
+        <v>211879</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D24" s="7">
-        <v>25388</v>
+        <v>6709</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="H24" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I24" s="7">
-        <v>18447</v>
+        <v>9710</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="M24" s="7">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="N24" s="7">
-        <v>43835</v>
+        <v>16419</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>75911</v>
+        <v>1399</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="H25" s="7">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>58864</v>
+        <v>2456</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="M25" s="7">
-        <v>169</v>
+        <v>5</v>
       </c>
       <c r="N25" s="7">
-        <v>134775</v>
+        <v>3855</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2254,49 +2176,49 @@
         <v>44</v>
       </c>
       <c r="C26" s="7">
-        <v>352</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>300887</v>
+        <v>1404</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="H26" s="7">
-        <v>340</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>260172</v>
+        <v>1743</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>87</v>
       </c>
       <c r="M26" s="7">
-        <v>692</v>
+        <v>4</v>
       </c>
       <c r="N26" s="7">
-        <v>561059</v>
+        <v>3147</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2305,54 +2227,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="D27" s="7">
-        <v>418734</v>
+        <v>369251</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="I27" s="7">
-        <v>360438</v>
+        <v>439562</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="N27" s="7">
-        <v>779172</v>
+        <v>808813</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
